--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Csf3-Csf3r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Csf3-Csf3r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Csf3r</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.2817155</v>
+      </c>
+      <c r="H2">
+        <v>0.563431</v>
+      </c>
+      <c r="I2">
+        <v>0.1150886917861957</v>
+      </c>
+      <c r="J2">
+        <v>0.07978664124510158</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G2">
-        <v>0.5501443333333333</v>
-      </c>
-      <c r="H2">
-        <v>1.650433</v>
-      </c>
-      <c r="I2">
-        <v>0.5026825545777646</v>
-      </c>
-      <c r="J2">
-        <v>0.5026825545777646</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.118562</v>
+        <v>0.046873</v>
       </c>
       <c r="N2">
-        <v>0.237124</v>
+        <v>0.093746</v>
       </c>
       <c r="O2">
-        <v>0.001230274889889436</v>
+        <v>5.453183174607497E-05</v>
       </c>
       <c r="P2">
-        <v>0.0008205197482072497</v>
+        <v>3.635719593116276E-05</v>
       </c>
       <c r="Q2">
-        <v>0.06522621244866667</v>
+        <v>0.0132048506315</v>
       </c>
       <c r="R2">
-        <v>0.391357274692</v>
+        <v>0.052819402526</v>
       </c>
       <c r="S2">
-        <v>0.0006184377244824996</v>
+        <v>6.275997176360706E-06</v>
       </c>
       <c r="T2">
-        <v>0.0004124609631103244</v>
+        <v>2.90081854843755E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.5501443333333333</v>
+        <v>0.2817155</v>
       </c>
       <c r="H3">
-        <v>1.650433</v>
+        <v>0.563431</v>
       </c>
       <c r="I3">
-        <v>0.5026825545777646</v>
+        <v>0.1150886917861957</v>
       </c>
       <c r="J3">
-        <v>0.5026825545777646</v>
+        <v>0.07978664124510158</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.348526</v>
+        <v>59.174535</v>
       </c>
       <c r="N3">
-        <v>127.045578</v>
+        <v>177.523605</v>
       </c>
       <c r="O3">
-        <v>0.4394353010376842</v>
+        <v>0.06884338075805313</v>
       </c>
       <c r="P3">
-        <v>0.4396155837089646</v>
+        <v>0.06884838275117172</v>
       </c>
       <c r="Q3">
-        <v>23.29780160391933</v>
+        <v>16.6703837147925</v>
       </c>
       <c r="R3">
-        <v>209.680214435274</v>
+        <v>100.022302288755</v>
       </c>
       <c r="S3">
-        <v>0.2208964596972721</v>
+        <v>0.007923094629583294</v>
       </c>
       <c r="T3">
-        <v>0.2209870846510174</v>
+        <v>0.005493181214873178</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.5501443333333333</v>
+        <v>0.2817155</v>
       </c>
       <c r="H4">
-        <v>1.650433</v>
+        <v>0.563431</v>
       </c>
       <c r="I4">
-        <v>0.5026825545777646</v>
+        <v>0.1150886917861957</v>
       </c>
       <c r="J4">
-        <v>0.5026825545777646</v>
+        <v>0.07978664124510158</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.5261563333333333</v>
+        <v>0.1404725</v>
       </c>
       <c r="N4">
-        <v>1.578469</v>
+        <v>0.280945</v>
       </c>
       <c r="O4">
-        <v>0.005459733515429025</v>
+        <v>0.0001634250578147444</v>
       </c>
       <c r="P4">
-        <v>0.005461973425013703</v>
+        <v>0.000108957954588788</v>
       </c>
       <c r="Q4">
-        <v>0.2894619252307778</v>
+        <v>0.03957328057375</v>
       </c>
       <c r="R4">
-        <v>2.605157327077</v>
+        <v>0.158293122295</v>
       </c>
       <c r="S4">
-        <v>0.002744512790849701</v>
+        <v>1.880837610898234E-05</v>
       </c>
       <c r="T4">
-        <v>0.00274563875432175</v>
+        <v>8.693389233575699E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.5501443333333333</v>
+        <v>0.2817155</v>
       </c>
       <c r="H5">
-        <v>1.650433</v>
+        <v>0.563431</v>
       </c>
       <c r="I5">
-        <v>0.5026825545777646</v>
+        <v>0.1150886917861957</v>
       </c>
       <c r="J5">
-        <v>0.5026825545777646</v>
+        <v>0.07978664124510158</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,90 +744,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.37708799999999</v>
+        <v>771.6691283333333</v>
       </c>
       <c r="N5">
-        <v>160.131264</v>
+        <v>2315.007385</v>
       </c>
       <c r="O5">
-        <v>0.5538746905569973</v>
+        <v>0.8977563004269765</v>
       </c>
       <c r="P5">
-        <v>0.5541019231178145</v>
+        <v>0.8978215292229399</v>
       </c>
       <c r="Q5">
-        <v>29.36510249303466</v>
+        <v>217.3911543229892</v>
       </c>
       <c r="R5">
-        <v>264.285922437312</v>
+        <v>1304.346925937935</v>
       </c>
       <c r="S5">
-        <v>0.2784231443651602</v>
+        <v>0.1033215981589556</v>
       </c>
       <c r="T5">
-        <v>0.2785373702093151</v>
+        <v>0.0716341642542392</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.3589309999999999</v>
+        <v>0.2817155</v>
       </c>
       <c r="H6">
-        <v>1.076793</v>
+        <v>0.563431</v>
       </c>
       <c r="I6">
-        <v>0.3279654829923146</v>
+        <v>0.1150886917861957</v>
       </c>
       <c r="J6">
-        <v>0.3279654829923146</v>
+        <v>0.07978664124510158</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.118562</v>
+        <v>28.521999</v>
       </c>
       <c r="N6">
-        <v>0.237124</v>
+        <v>85.56599700000001</v>
       </c>
       <c r="O6">
-        <v>0.001230274889889436</v>
+        <v>0.03318236192540949</v>
       </c>
       <c r="P6">
-        <v>0.0008205197482072497</v>
+        <v>0.03318477287536839</v>
       </c>
       <c r="Q6">
-        <v>0.04255557722199999</v>
+        <v>8.035089209284502</v>
       </c>
       <c r="R6">
-        <v>0.255333463332</v>
+        <v>48.21053525570701</v>
       </c>
       <c r="S6">
-        <v>0.0004034876984759054</v>
+        <v>0.003818914624371448</v>
       </c>
       <c r="T6">
-        <v>0.000269102155525523</v>
+        <v>0.002647701568207196</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,46 +850,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3589309999999999</v>
+        <v>0.6876633333333334</v>
       </c>
       <c r="H7">
-        <v>1.076793</v>
+        <v>2.06299</v>
       </c>
       <c r="I7">
-        <v>0.3279654829923146</v>
+        <v>0.2809297799470316</v>
       </c>
       <c r="J7">
-        <v>0.3279654829923146</v>
+        <v>0.2921370017308812</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.348526</v>
+        <v>0.046873</v>
       </c>
       <c r="N7">
-        <v>127.045578</v>
+        <v>0.093746</v>
       </c>
       <c r="O7">
-        <v>0.4394353010376842</v>
+        <v>5.453183174607497E-05</v>
       </c>
       <c r="P7">
-        <v>0.4396155837089646</v>
+        <v>3.635719593116276E-05</v>
       </c>
       <c r="Q7">
-        <v>15.200198785706</v>
+        <v>0.03223284342333334</v>
       </c>
       <c r="R7">
-        <v>136.801789071354</v>
+        <v>0.19339706054</v>
       </c>
       <c r="S7">
-        <v>0.1441196107486973</v>
+        <v>1.531961549253339E-05</v>
       </c>
       <c r="T7">
-        <v>0.1441787372420589</v>
+        <v>1.062128221067208E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -909,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3589309999999999</v>
+        <v>0.6876633333333334</v>
       </c>
       <c r="H8">
-        <v>1.076793</v>
+        <v>2.06299</v>
       </c>
       <c r="I8">
-        <v>0.3279654829923146</v>
+        <v>0.2809297799470316</v>
       </c>
       <c r="J8">
-        <v>0.3279654829923146</v>
+        <v>0.2921370017308812</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5261563333333333</v>
+        <v>59.174535</v>
       </c>
       <c r="N8">
-        <v>1.578469</v>
+        <v>177.523605</v>
       </c>
       <c r="O8">
-        <v>0.005459733515429025</v>
+        <v>0.06884338075805313</v>
       </c>
       <c r="P8">
-        <v>0.005461973425013703</v>
+        <v>0.06884838275117172</v>
       </c>
       <c r="Q8">
-        <v>0.1888538188796667</v>
+        <v>40.69215798655</v>
       </c>
       <c r="R8">
-        <v>1.699684369917</v>
+        <v>366.22942187895</v>
       </c>
       <c r="S8">
-        <v>0.001790604139397008</v>
+        <v>0.01934015580716958</v>
       </c>
       <c r="T8">
-        <v>0.001791338752425806</v>
+        <v>0.02011316011094742</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,60 +974,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3589309999999999</v>
+        <v>0.6876633333333334</v>
       </c>
       <c r="H9">
-        <v>1.076793</v>
+        <v>2.06299</v>
       </c>
       <c r="I9">
-        <v>0.3279654829923146</v>
+        <v>0.2809297799470316</v>
       </c>
       <c r="J9">
-        <v>0.3279654829923146</v>
+        <v>0.2921370017308812</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>53.37708799999999</v>
+        <v>0.1404725</v>
       </c>
       <c r="N9">
-        <v>160.131264</v>
+        <v>0.280945</v>
       </c>
       <c r="O9">
-        <v>0.5538746905569973</v>
+        <v>0.0001634250578147444</v>
       </c>
       <c r="P9">
-        <v>0.5541019231178145</v>
+        <v>0.000108957954588788</v>
       </c>
       <c r="Q9">
-        <v>19.158691572928</v>
+        <v>0.09659778759166668</v>
       </c>
       <c r="R9">
-        <v>172.428224156352</v>
+        <v>0.57958672555</v>
       </c>
       <c r="S9">
-        <v>0.1816517804057444</v>
+        <v>4.591096552972708E-05</v>
       </c>
       <c r="T9">
-        <v>0.1817263048423044</v>
+        <v>3.183065016829804E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,60 +1036,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1853416666666667</v>
+        <v>0.6876633333333334</v>
       </c>
       <c r="H10">
-        <v>0.556025</v>
+        <v>2.06299</v>
       </c>
       <c r="I10">
-        <v>0.1693519624299208</v>
+        <v>0.2809297799470316</v>
       </c>
       <c r="J10">
-        <v>0.1693519624299208</v>
+        <v>0.2921370017308812</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.118562</v>
+        <v>771.6691283333333</v>
       </c>
       <c r="N10">
-        <v>0.237124</v>
+        <v>2315.007385</v>
       </c>
       <c r="O10">
-        <v>0.001230274889889436</v>
+        <v>0.8977563004269765</v>
       </c>
       <c r="P10">
-        <v>0.0008205197482072497</v>
+        <v>0.8978215292229399</v>
       </c>
       <c r="Q10">
-        <v>0.02197447868333333</v>
+        <v>530.6485650201279</v>
       </c>
       <c r="R10">
-        <v>0.1318468721</v>
+        <v>4775.83708518115</v>
       </c>
       <c r="S10">
-        <v>0.0002083494669310307</v>
+        <v>0.2522064799250117</v>
       </c>
       <c r="T10">
-        <v>0.0001389566295714023</v>
+        <v>0.2622868896366244</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1095,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1853416666666667</v>
+        <v>0.6876633333333334</v>
       </c>
       <c r="H11">
-        <v>0.556025</v>
+        <v>2.06299</v>
       </c>
       <c r="I11">
-        <v>0.1693519624299208</v>
+        <v>0.2809297799470316</v>
       </c>
       <c r="J11">
-        <v>0.1693519624299208</v>
+        <v>0.2921370017308812</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>42.348526</v>
+        <v>28.521999</v>
       </c>
       <c r="N11">
-        <v>127.045578</v>
+        <v>85.56599700000001</v>
       </c>
       <c r="O11">
-        <v>0.4394353010376842</v>
+        <v>0.03318236192540949</v>
       </c>
       <c r="P11">
-        <v>0.4396155837089646</v>
+        <v>0.03318477287536839</v>
       </c>
       <c r="Q11">
-        <v>7.848946389716666</v>
+        <v>19.61353290567001</v>
       </c>
       <c r="R11">
-        <v>70.64051750745</v>
+        <v>176.52179615103</v>
       </c>
       <c r="S11">
-        <v>0.07441923059171483</v>
+        <v>0.009321913633828047</v>
       </c>
       <c r="T11">
-        <v>0.07444976181588829</v>
+        <v>0.009694500050930395</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1853416666666667</v>
+        <v>1.215746666666667</v>
       </c>
       <c r="H12">
-        <v>0.556025</v>
+        <v>3.64724</v>
       </c>
       <c r="I12">
-        <v>0.1693519624299208</v>
+        <v>0.4966666491907433</v>
       </c>
       <c r="J12">
-        <v>0.1693519624299208</v>
+        <v>0.5164803310694376</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5261563333333333</v>
+        <v>0.046873</v>
       </c>
       <c r="N12">
-        <v>1.578469</v>
+        <v>0.093746</v>
       </c>
       <c r="O12">
-        <v>0.005459733515429025</v>
+        <v>5.453183174607497E-05</v>
       </c>
       <c r="P12">
-        <v>0.005461973425013703</v>
+        <v>3.635719593116276E-05</v>
       </c>
       <c r="Q12">
-        <v>0.09751869174722222</v>
+        <v>0.05698569350666667</v>
       </c>
       <c r="R12">
-        <v>0.8776682257249999</v>
+        <v>0.34191416104</v>
       </c>
       <c r="S12">
-        <v>0.0009246165851823156</v>
+        <v>2.708414214755646E-05</v>
       </c>
       <c r="T12">
-        <v>0.0009249959182661468</v>
+        <v>1.877777659128335E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1853416666666667</v>
+        <v>1.215746666666667</v>
       </c>
       <c r="H13">
-        <v>0.556025</v>
+        <v>3.64724</v>
       </c>
       <c r="I13">
-        <v>0.1693519624299208</v>
+        <v>0.4966666491907433</v>
       </c>
       <c r="J13">
-        <v>0.1693519624299208</v>
+        <v>0.5164803310694376</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1240,524 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.37708799999999</v>
+        <v>59.174535</v>
       </c>
       <c r="N13">
-        <v>160.131264</v>
+        <v>177.523605</v>
       </c>
       <c r="O13">
-        <v>0.5538746905569973</v>
+        <v>0.06884338075805313</v>
       </c>
       <c r="P13">
-        <v>0.5541019231178145</v>
+        <v>0.06884838275117172</v>
       </c>
       <c r="Q13">
-        <v>9.892998451733332</v>
+        <v>71.9412436778</v>
       </c>
       <c r="R13">
-        <v>89.03698606559999</v>
+        <v>647.4711931002</v>
       </c>
       <c r="S13">
-        <v>0.09379976578609263</v>
+        <v>0.03419221124006474</v>
       </c>
       <c r="T13">
-        <v>0.09383824806619501</v>
+        <v>0.03555883551692052</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.215746666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.64724</v>
+      </c>
+      <c r="I14">
+        <v>0.4966666491907433</v>
+      </c>
+      <c r="J14">
+        <v>0.5164803310694376</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.1404725</v>
+      </c>
+      <c r="N14">
+        <v>0.280945</v>
+      </c>
+      <c r="O14">
+        <v>0.0001634250578147444</v>
+      </c>
+      <c r="P14">
+        <v>0.000108957954588788</v>
+      </c>
+      <c r="Q14">
+        <v>0.1707789736333334</v>
+      </c>
+      <c r="R14">
+        <v>1.0246738418</v>
+      </c>
+      <c r="S14">
+        <v>8.116777585865262E-05</v>
+      </c>
+      <c r="T14">
+        <v>5.627464045866597E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.215746666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.64724</v>
+      </c>
+      <c r="I15">
+        <v>0.4966666491907433</v>
+      </c>
+      <c r="J15">
+        <v>0.5164803310694376</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>771.6691283333333</v>
+      </c>
+      <c r="N15">
+        <v>2315.007385</v>
+      </c>
+      <c r="O15">
+        <v>0.8977563004269765</v>
+      </c>
+      <c r="P15">
+        <v>0.8978215292229399</v>
+      </c>
+      <c r="Q15">
+        <v>938.1541705408223</v>
+      </c>
+      <c r="R15">
+        <v>8443.387534867399</v>
+      </c>
+      <c r="S15">
+        <v>0.4458856135229446</v>
+      </c>
+      <c r="T15">
+        <v>0.4637071606543327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.215746666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.64724</v>
+      </c>
+      <c r="I16">
+        <v>0.4966666491907433</v>
+      </c>
+      <c r="J16">
+        <v>0.5164803310694376</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>28.521999</v>
+      </c>
+      <c r="N16">
+        <v>85.56599700000001</v>
+      </c>
+      <c r="O16">
+        <v>0.03318236192540949</v>
+      </c>
+      <c r="P16">
+        <v>0.03318477287536839</v>
+      </c>
+      <c r="Q16">
+        <v>34.67552521092001</v>
+      </c>
+      <c r="R16">
+        <v>312.0797268982801</v>
+      </c>
+      <c r="S16">
+        <v>0.01648057250972763</v>
+      </c>
+      <c r="T16">
+        <v>0.01713928248113436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.2626866666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.78806</v>
+      </c>
+      <c r="I17">
+        <v>0.1073148790760293</v>
+      </c>
+      <c r="J17">
+        <v>0.1115960259545796</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.046873</v>
+      </c>
+      <c r="N17">
+        <v>0.093746</v>
+      </c>
+      <c r="O17">
+        <v>5.453183174607497E-05</v>
+      </c>
+      <c r="P17">
+        <v>3.635719593116276E-05</v>
+      </c>
+      <c r="Q17">
+        <v>0.01231291212666667</v>
+      </c>
+      <c r="R17">
+        <v>0.07387747275999999</v>
+      </c>
+      <c r="S17">
+        <v>5.852076929624412E-06</v>
+      </c>
+      <c r="T17">
+        <v>4.057318580769776E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.2626866666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.78806</v>
+      </c>
+      <c r="I18">
+        <v>0.1073148790760293</v>
+      </c>
+      <c r="J18">
+        <v>0.1115960259545796</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>59.174535</v>
+      </c>
+      <c r="N18">
+        <v>177.523605</v>
+      </c>
+      <c r="O18">
+        <v>0.06884338075805313</v>
+      </c>
+      <c r="P18">
+        <v>0.06884838275117172</v>
+      </c>
+      <c r="Q18">
+        <v>15.5443613507</v>
+      </c>
+      <c r="R18">
+        <v>139.8992521563</v>
+      </c>
+      <c r="S18">
+        <v>0.007387919081235515</v>
+      </c>
+      <c r="T18">
+        <v>0.007683205908430591</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.2626866666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.78806</v>
+      </c>
+      <c r="I19">
+        <v>0.1073148790760293</v>
+      </c>
+      <c r="J19">
+        <v>0.1115960259545796</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.1404725</v>
+      </c>
+      <c r="N19">
+        <v>0.280945</v>
+      </c>
+      <c r="O19">
+        <v>0.0001634250578147444</v>
+      </c>
+      <c r="P19">
+        <v>0.000108957954588788</v>
+      </c>
+      <c r="Q19">
+        <v>0.03690025278333334</v>
+      </c>
+      <c r="R19">
+        <v>0.2214015167</v>
+      </c>
+      <c r="S19">
+        <v>1.75379403173824E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.215927472824829E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.2626866666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.78806</v>
+      </c>
+      <c r="I20">
+        <v>0.1073148790760293</v>
+      </c>
+      <c r="J20">
+        <v>0.1115960259545796</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>771.6691283333333</v>
+      </c>
+      <c r="N20">
+        <v>2315.007385</v>
+      </c>
+      <c r="O20">
+        <v>0.8977563004269765</v>
+      </c>
+      <c r="P20">
+        <v>0.8978215292229399</v>
+      </c>
+      <c r="Q20">
+        <v>202.7071910914556</v>
+      </c>
+      <c r="R20">
+        <v>1824.3647198231</v>
+      </c>
+      <c r="S20">
+        <v>0.09634260882006443</v>
+      </c>
+      <c r="T20">
+        <v>0.1001933146777436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2626866666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.78806</v>
+      </c>
+      <c r="I21">
+        <v>0.1073148790760293</v>
+      </c>
+      <c r="J21">
+        <v>0.1115960259545796</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>28.521999</v>
+      </c>
+      <c r="N21">
+        <v>85.56599700000001</v>
+      </c>
+      <c r="O21">
+        <v>0.03318236192540949</v>
+      </c>
+      <c r="P21">
+        <v>0.03318477287536839</v>
+      </c>
+      <c r="Q21">
+        <v>7.492348843980001</v>
+      </c>
+      <c r="R21">
+        <v>67.43113959582</v>
+      </c>
+      <c r="S21">
+        <v>0.003560961157482358</v>
+      </c>
+      <c r="T21">
+        <v>0.003703288775096441</v>
       </c>
     </row>
   </sheetData>
